--- a/biology/Botanique/Paul_Derenne_(militaire)/Paul_Derenne_(militaire).xlsx
+++ b/biology/Botanique/Paul_Derenne_(militaire)/Paul_Derenne_(militaire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Derenne, né 26 avril 1902 à Couterne et mort le 26 novembre 1997 à Flers[1], est un militaire, botaniste, professeur et pédagogue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Derenne, né 26 avril 1902 à Couterne et mort le 26 novembre 1997 à Flers, est un militaire, botaniste, professeur et pédagogue français.
 Durant la Seconde Guerre mondiale, de 1940-1945 il a été interné dans plusieurs camps d'Oflag (III-A, IV-D), où il était chargé, pour les prisonniers officiers qui le souhaitaient, de l'enseignement des langues (allemand, anglais) au sein de la faculté interne des camps, créée par les prisonniers eux-mêmes.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1923, alors jeune lieutenant il est affecté en Rhénanie, où il doit faire un rapport sur la situation outre-Rhin après guerre. Le rapport s'intitule Outre-Rhin, 1924-1925 : période d'observation.
 Instituteur en début de carrière, Paul Derenne enseignera notamment les mathématiques aux écoles de Saint-Cyr Coëtquidan avant la Deuxième Guerre mondiale. Diplômé de l’université de Rennes en langues étrangères et en mathématiques, il était, en 1939, directeur d’école.
@@ -547,7 +561,9 @@
           <t>Vie dans les différents Oflag</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Derenne a laissé une correspondance d'environ trois cents lettres, sous contrôle de la censure, où il raconte sa vie dans les camps de 1940-1945. Ces lettres font actuellement l'objet d'une recherche et d'une analyse lexicométrique.
 Alors qu'il est en captivité à Oflag III puis à Oflag IV-D, durant la seconde guerre mondiale, Paul Derenne décide de se construire un « potager » dans l'enceinte même du camp de prisonniers. Ce simple acte changera littéralement sa vie. D'abord de prisonnier, puisque ce « potager », pendant cinq ans, lui a permis de mieux contrôler le temps qui passait en captivité (grâce aux plantations des différentes saisons, temps de pousse etc.), de se soigner avec certaines plantes et légumineuses puisque les conditions de vie dans le camp ne lui permettaient évidemment pas d'avoir accès à de quelconques médicaments, et de pouvoir se créer un environnement propre et privé, important dans les cas de détention, l'environnement étant un point clé pour aider les prisonniers à se reconstruire.
@@ -581,7 +597,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Marié deux fois, il est le père de quatre filles. Sa descendance (petits-enfants et arrière-petits-enfants) est aujourd’hui française, allemande, canadienne, américaine, grecque, finlandaise et eurasienne/cambodgienne.
 Il est notamment le grand-père maternel de la pédagogue et ethnomathématicienne Victoria Kayser et de François Chassagne, docteur en pharmacie et ethnobotaniste, qui a parcouru l’Asie en sac à dos pendant huit mois afin d’étudier le lien entre populations et plantes.  
@@ -613,7 +631,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Civile
 Chevalier de l'ordre des Palmes académiques.
@@ -627,9 +647,9 @@
 1937 : T.S. % de la Région (EPSOR)
 1950 : Lettre de félicitations du ministre (2.3.1950)
 Décoration
-Croix des S.M.V. de 3e classe (arrêté du 12 août 1938 - Journal officiel de la République française des 8 et 9 septembre 1938[2])
+Croix des S.M.V. de 3e classe (arrêté du 12 août 1938 - Journal officiel de la République française des 8 et 9 septembre 1938)
 Grade militaire
-Lieutenant puis capitaine à sa sortie d'OFLAG[3]</t>
+Lieutenant puis capitaine à sa sortie d'OFLAG</t>
         </is>
       </c>
     </row>
@@ -657,7 +677,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Guérir par les produits du jardin, Maulévier, Hérault, 1981, 192 p. (OCLC 461982448).
 Outre-Rhin, 1924-1925 : période d'observation, Canada, 2011 (publication posthume) (ISBN 978-1-257-82042-9, OCLC 940877250).
@@ -689,7 +711,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Victoria Kayser, Pédagogie Kayser (4-7 ans) entre approche sensorielle Montessori et théorie des intelligences multiples de Gardner, Montréal, centre de recherche DMDEA, 2011, 154 p. (ISBN 978-2-9812-7110-5 et 2981271105, OCLC 819154353).</t>
         </is>
